--- a/참고자료/주문서 데이터-정규화 실습.xlsx
+++ b/참고자료/주문서 데이터-정규화 실습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="주문원장" sheetId="1" r:id="rId1"/>
@@ -21606,7 +21606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21648,7 +21648,7 @@
       </c>
       <c r="E2">
         <f ca="1">INT((D2-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3280</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">INT((D3-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3980</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1920</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2330</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2650</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -21788,7 +21788,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4790</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -21848,7 +21848,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>990</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>830</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1320</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2390</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1830</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1260</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -22008,7 +22008,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1620</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2560</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1620</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -22068,7 +22068,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>920</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -22088,7 +22088,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2600</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2580</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -22128,7 +22128,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2980</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1990</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -22188,7 +22188,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4610</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2000</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2960</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -22248,7 +22248,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3300</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4270</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4920</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -22328,7 +22328,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4670</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3430</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>670</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -22388,7 +22388,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3270</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3090</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -22428,7 +22428,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3460</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -22468,7 +22468,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4110</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -22488,7 +22488,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>810</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2520</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1020</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -22548,7 +22548,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>710</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>890</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4040</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -22608,7 +22608,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>740</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1110</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -22668,7 +22668,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3210</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4820</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>3550</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -22748,7 +22748,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -22768,7 +22768,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2130</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>630</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3240</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -22868,7 +22868,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4330</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4580</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>1430</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">INT((D67-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4210</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>3140</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -22988,7 +22988,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>4600</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>1210</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>4420</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>2630</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4500</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>4290</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3930</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4410</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>630</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -23168,7 +23168,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>1340</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -23188,7 +23188,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>1910</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>3320</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>4630</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>770</v>
+        <v>700</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>1020</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>1490</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>2640</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -23328,7 +23328,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4200</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -23348,7 +23348,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>1910</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>1040</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -23388,7 +23388,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>850</v>
+        <v>890</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>2840</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>2520</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>1530</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>4570</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3510</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -23508,7 +23508,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>1650</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>1410</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>2910</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -23568,7 +23568,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3880</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>390</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>2430</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>2350</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -23648,7 +23648,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>2960</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>1320</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>3300</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>740</v>
+        <v>770</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>2610</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>390</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>4640</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>4860</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>1450</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>3500</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>1850</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>910</v>
+        <v>880</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>4570</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -23908,7 +23908,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>4670</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>3590</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>1010</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -24008,7 +24008,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>4700</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>3280</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>3590</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -24068,7 +24068,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>570</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>3560</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>1090</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>4580</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>480</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -24168,7 +24168,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>4230</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -24188,7 +24188,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>4230</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>3090</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -24228,7 +24228,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" ca="1" si="2">INT((D131-RANDBETWEEN(0,200))/10)*10</f>
-        <v>2540</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>3330</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>3540</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -24288,7 +24288,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>3520</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -24308,7 +24308,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>4210</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>1380</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>4400</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>4110</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>1550</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -24408,7 +24408,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>1190</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -24428,7 +24428,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>4210</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -24448,7 +24448,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>4230</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>860</v>
+        <v>930</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>3340</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -24548,7 +24548,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>4160</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>1950</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>3420</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -24628,7 +24628,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>4610</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -24708,7 +24708,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>540</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -24728,7 +24728,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>1450</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -24748,7 +24748,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -24768,7 +24768,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>3200</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -24788,7 +24788,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>870</v>
+        <v>850</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -24808,7 +24808,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>3240</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>2600</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>810</v>
+        <v>720</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -24868,7 +24868,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>3260</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>890</v>
+        <v>820</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>2050</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>4230</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>4060</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>3900</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -25008,7 +25008,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>1560</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -25028,7 +25028,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>530</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -25068,7 +25068,7 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="2"/>
-        <v>4620</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="2"/>
-        <v>3510</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="2"/>
-        <v>4240</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="2"/>
-        <v>1700</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -25148,7 +25148,7 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="2"/>
-        <v>4120</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="2"/>
-        <v>4610</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -25188,7 +25188,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="2"/>
-        <v>3220</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -25208,7 +25208,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="2"/>
-        <v>2460</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="2"/>
-        <v>4150</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -25268,7 +25268,7 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="2"/>
-        <v>2120</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="2"/>
-        <v>680</v>
+        <v>590</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -25308,7 +25308,7 @@
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="2"/>
-        <v>3910</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -25328,7 +25328,7 @@
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="2"/>
-        <v>4590</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -25348,7 +25348,7 @@
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="2"/>
-        <v>4250</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="2"/>
-        <v>2470</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="2"/>
-        <v>1040</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="2"/>
-        <v>3930</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -25448,7 +25448,7 @@
       </c>
       <c r="E192">
         <f t="shared" ca="1" si="2"/>
-        <v>3450</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -25468,7 +25468,7 @@
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="2"/>
-        <v>4580</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E258" ca="1" si="3">INT((D195-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4300</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -25528,7 +25528,7 @@
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="3"/>
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -25548,7 +25548,7 @@
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="3"/>
-        <v>4250</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="3"/>
-        <v>1250</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="3"/>
-        <v>3600</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="3"/>
-        <v>1180</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="3"/>
-        <v>3330</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -25648,7 +25648,7 @@
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="3"/>
-        <v>1040</v>
+        <v>940</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -25688,7 +25688,7 @@
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="3"/>
-        <v>2840</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -25708,7 +25708,7 @@
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="3"/>
-        <v>4420</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -25728,7 +25728,7 @@
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="3"/>
-        <v>2350</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="3"/>
-        <v>1440</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="3"/>
-        <v>1490</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="3"/>
-        <v>2490</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="E210">
         <f t="shared" ca="1" si="3"/>
-        <v>4360</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="E211">
         <f t="shared" ca="1" si="3"/>
-        <v>2460</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="3"/>
-        <v>420</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="E213">
         <f t="shared" ca="1" si="3"/>
-        <v>2870</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -25888,7 +25888,7 @@
       </c>
       <c r="E214">
         <f t="shared" ca="1" si="3"/>
-        <v>2560</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="3"/>
-        <v>4420</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="3"/>
-        <v>4430</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="3"/>
-        <v>1090</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="3"/>
-        <v>2420</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -25988,7 +25988,7 @@
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="3"/>
-        <v>4090</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="3"/>
-        <v>4860</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -26028,7 +26028,7 @@
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="3"/>
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -26048,7 +26048,7 @@
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="3"/>
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="3"/>
-        <v>2100</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -26088,7 +26088,7 @@
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="3"/>
-        <v>3840</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -26108,7 +26108,7 @@
       </c>
       <c r="E225">
         <f t="shared" ca="1" si="3"/>
-        <v>1130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -26128,7 +26128,7 @@
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="3"/>
-        <v>4340</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -26148,7 +26148,7 @@
       </c>
       <c r="E227">
         <f t="shared" ca="1" si="3"/>
-        <v>4830</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -26168,7 +26168,7 @@
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="3"/>
-        <v>1470</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="3"/>
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="E230">
         <f t="shared" ca="1" si="3"/>
-        <v>3410</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="E231">
         <f t="shared" ca="1" si="3"/>
-        <v>1360</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="3"/>
-        <v>2570</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -26268,7 +26268,7 @@
       </c>
       <c r="E233">
         <f t="shared" ca="1" si="3"/>
-        <v>4630</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="3"/>
-        <v>790</v>
+        <v>770</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="3"/>
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -26328,7 +26328,7 @@
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="3"/>
-        <v>3940</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="3"/>
-        <v>1500</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="E238">
         <f t="shared" ca="1" si="3"/>
-        <v>870</v>
+        <v>920</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -26388,7 +26388,7 @@
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="3"/>
-        <v>1750</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="3"/>
-        <v>770</v>
+        <v>730</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="3"/>
-        <v>460</v>
+        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -26448,7 +26448,7 @@
       </c>
       <c r="E242">
         <f t="shared" ca="1" si="3"/>
-        <v>3260</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="E243">
         <f t="shared" ca="1" si="3"/>
-        <v>2640</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -26508,7 +26508,7 @@
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="3"/>
-        <v>2530</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="3"/>
-        <v>1420</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -26548,7 +26548,7 @@
       </c>
       <c r="E247">
         <f t="shared" ca="1" si="3"/>
-        <v>1040</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -26568,7 +26568,7 @@
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="3"/>
-        <v>4010</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="E249">
         <f t="shared" ca="1" si="3"/>
-        <v>580</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="3"/>
-        <v>3470</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="E251">
         <f t="shared" ca="1" si="3"/>
-        <v>800</v>
+        <v>930</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -26648,7 +26648,7 @@
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="3"/>
-        <v>1080</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -26668,7 +26668,7 @@
       </c>
       <c r="E253">
         <f t="shared" ca="1" si="3"/>
-        <v>2370</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -26688,7 +26688,7 @@
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="3"/>
-        <v>2730</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="3"/>
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="E256">
         <f t="shared" ca="1" si="3"/>
-        <v>1350</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="E257">
         <f t="shared" ca="1" si="3"/>
-        <v>2590</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -26768,7 +26768,7 @@
       </c>
       <c r="E258">
         <f t="shared" ca="1" si="3"/>
-        <v>3550</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="E259">
         <f t="shared" ref="E259:E322" ca="1" si="4">INT((D259-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4510</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="E260">
         <f t="shared" ca="1" si="4"/>
-        <v>1470</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E261">
         <f t="shared" ca="1" si="4"/>
-        <v>4720</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -26848,7 +26848,7 @@
       </c>
       <c r="E262">
         <f t="shared" ca="1" si="4"/>
-        <v>1720</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="E263">
         <f t="shared" ca="1" si="4"/>
-        <v>3000</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="E265">
         <f t="shared" ca="1" si="4"/>
-        <v>3420</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -26928,7 +26928,7 @@
       </c>
       <c r="E266">
         <f t="shared" ca="1" si="4"/>
-        <v>670</v>
+        <v>610</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="E267">
         <f t="shared" ca="1" si="4"/>
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -26968,7 +26968,7 @@
       </c>
       <c r="E268">
         <f t="shared" ca="1" si="4"/>
-        <v>3430</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="E269">
         <f t="shared" ca="1" si="4"/>
-        <v>4220</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -27008,7 +27008,7 @@
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="4"/>
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="4"/>
-        <v>3750</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -27048,7 +27048,7 @@
       </c>
       <c r="E272">
         <f t="shared" ca="1" si="4"/>
-        <v>3050</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -27068,7 +27068,7 @@
       </c>
       <c r="E273">
         <f t="shared" ca="1" si="4"/>
-        <v>3490</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="E274">
         <f t="shared" ca="1" si="4"/>
-        <v>1950</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -27108,7 +27108,7 @@
       </c>
       <c r="E275">
         <f t="shared" ca="1" si="4"/>
-        <v>4500</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -27128,7 +27128,7 @@
       </c>
       <c r="E276">
         <f t="shared" ca="1" si="4"/>
-        <v>2460</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -27168,7 +27168,7 @@
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="4"/>
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="4"/>
-        <v>1040</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="4"/>
-        <v>4470</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -27228,7 +27228,7 @@
       </c>
       <c r="E281">
         <f t="shared" ca="1" si="4"/>
-        <v>2700</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="4"/>
-        <v>3980</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="4"/>
-        <v>3380</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -27288,7 +27288,7 @@
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="4"/>
-        <v>590</v>
+        <v>710</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="E285">
         <f t="shared" ca="1" si="4"/>
-        <v>3420</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -27328,7 +27328,7 @@
       </c>
       <c r="E286">
         <f t="shared" ca="1" si="4"/>
-        <v>1850</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -27348,7 +27348,7 @@
       </c>
       <c r="E287">
         <f t="shared" ca="1" si="4"/>
-        <v>2500</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E288">
         <f t="shared" ca="1" si="4"/>
-        <v>1270</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -27388,7 +27388,7 @@
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="4"/>
-        <v>2560</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="4"/>
-        <v>4110</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -27428,7 +27428,7 @@
       </c>
       <c r="E291">
         <f t="shared" ca="1" si="4"/>
-        <v>4420</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="4"/>
-        <v>2310</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="E293">
         <f t="shared" ca="1" si="4"/>
-        <v>2180</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="4"/>
-        <v>1680</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -27508,7 +27508,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="4"/>
-        <v>1370</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -27528,7 +27528,7 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="4"/>
-        <v>3750</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="4"/>
-        <v>3880</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -27568,7 +27568,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="4"/>
-        <v>2310</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="4"/>
-        <v>3540</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="4"/>
-        <v>4730</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -27628,7 +27628,7 @@
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="4"/>
-        <v>1530</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="E302">
         <f t="shared" ca="1" si="4"/>
-        <v>2000</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -27668,7 +27668,7 @@
       </c>
       <c r="E303">
         <f t="shared" ca="1" si="4"/>
-        <v>1390</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="E304">
         <f t="shared" ca="1" si="4"/>
-        <v>820</v>
+        <v>830</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -27708,7 +27708,7 @@
       </c>
       <c r="E305">
         <f t="shared" ca="1" si="4"/>
-        <v>4090</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -27728,7 +27728,7 @@
       </c>
       <c r="E306">
         <f t="shared" ca="1" si="4"/>
-        <v>510</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="E307">
         <f t="shared" ca="1" si="4"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -27768,7 +27768,7 @@
       </c>
       <c r="E308">
         <f t="shared" ca="1" si="4"/>
-        <v>2630</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -27788,7 +27788,7 @@
       </c>
       <c r="E309">
         <f t="shared" ca="1" si="4"/>
-        <v>3640</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -27808,7 +27808,7 @@
       </c>
       <c r="E310">
         <f t="shared" ca="1" si="4"/>
-        <v>3230</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -27828,7 +27828,7 @@
       </c>
       <c r="E311">
         <f t="shared" ca="1" si="4"/>
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="E312">
         <f t="shared" ca="1" si="4"/>
-        <v>460</v>
+        <v>620</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -27868,7 +27868,7 @@
       </c>
       <c r="E313">
         <f t="shared" ca="1" si="4"/>
-        <v>2490</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="E314">
         <f t="shared" ca="1" si="4"/>
-        <v>2510</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="E315">
         <f t="shared" ca="1" si="4"/>
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="E316">
         <f t="shared" ca="1" si="4"/>
-        <v>3600</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -27948,7 +27948,7 @@
       </c>
       <c r="E317">
         <f t="shared" ca="1" si="4"/>
-        <v>4760</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -27968,7 +27968,7 @@
       </c>
       <c r="E318">
         <f t="shared" ca="1" si="4"/>
-        <v>1320</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -27988,7 +27988,7 @@
       </c>
       <c r="E319">
         <f t="shared" ca="1" si="4"/>
-        <v>1600</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="E320">
         <f t="shared" ca="1" si="4"/>
-        <v>760</v>
+        <v>900</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="E321">
         <f t="shared" ca="1" si="4"/>
-        <v>1030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="E322">
         <f t="shared" ca="1" si="4"/>
-        <v>3880</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -28068,7 +28068,7 @@
       </c>
       <c r="E323">
         <f t="shared" ref="E323:E386" ca="1" si="5">INT((D323-RANDBETWEEN(0,200))/10)*10</f>
-        <v>1280</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="E324">
         <f t="shared" ca="1" si="5"/>
-        <v>4140</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -28108,7 +28108,7 @@
       </c>
       <c r="E325">
         <f t="shared" ca="1" si="5"/>
-        <v>4640</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="E326">
         <f t="shared" ca="1" si="5"/>
-        <v>3230</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -28148,7 +28148,7 @@
       </c>
       <c r="E327">
         <f t="shared" ca="1" si="5"/>
-        <v>3160</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -28168,7 +28168,7 @@
       </c>
       <c r="E328">
         <f t="shared" ca="1" si="5"/>
-        <v>3570</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="E329">
         <f t="shared" ca="1" si="5"/>
-        <v>3250</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -28208,7 +28208,7 @@
       </c>
       <c r="E330">
         <f t="shared" ca="1" si="5"/>
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="E331">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="E332">
         <f t="shared" ca="1" si="5"/>
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -28268,7 +28268,7 @@
       </c>
       <c r="E333">
         <f t="shared" ca="1" si="5"/>
-        <v>2380</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="E334">
         <f t="shared" ca="1" si="5"/>
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="E335">
         <f t="shared" ca="1" si="5"/>
-        <v>1010</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="E336">
         <f t="shared" ca="1" si="5"/>
-        <v>4570</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -28368,7 +28368,7 @@
       </c>
       <c r="E338">
         <f t="shared" ca="1" si="5"/>
-        <v>3350</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -28388,7 +28388,7 @@
       </c>
       <c r="E339">
         <f t="shared" ca="1" si="5"/>
-        <v>1630</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -28408,7 +28408,7 @@
       </c>
       <c r="E340">
         <f t="shared" ca="1" si="5"/>
-        <v>3190</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E341">
         <f t="shared" ca="1" si="5"/>
-        <v>3930</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="E342">
         <f t="shared" ca="1" si="5"/>
-        <v>4760</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="E343">
         <f t="shared" ca="1" si="5"/>
-        <v>820</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="E344">
         <f t="shared" ca="1" si="5"/>
-        <v>4490</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="E345">
         <f t="shared" ca="1" si="5"/>
-        <v>3460</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="E346">
         <f t="shared" ca="1" si="5"/>
-        <v>1600</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -28548,7 +28548,7 @@
       </c>
       <c r="E347">
         <f t="shared" ca="1" si="5"/>
-        <v>1260</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="E348">
         <f t="shared" ca="1" si="5"/>
-        <v>2590</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -28588,7 +28588,7 @@
       </c>
       <c r="E349">
         <f t="shared" ca="1" si="5"/>
-        <v>4590</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="E351">
         <f t="shared" ca="1" si="5"/>
-        <v>1020</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="E352">
         <f t="shared" ca="1" si="5"/>
-        <v>3900</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="E353">
         <f t="shared" ca="1" si="5"/>
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -28688,7 +28688,7 @@
       </c>
       <c r="E354">
         <f t="shared" ca="1" si="5"/>
-        <v>4300</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -28708,7 +28708,7 @@
       </c>
       <c r="E355">
         <f t="shared" ca="1" si="5"/>
-        <v>1860</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="E356">
         <f t="shared" ca="1" si="5"/>
-        <v>1510</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -28748,7 +28748,7 @@
       </c>
       <c r="E357">
         <f t="shared" ca="1" si="5"/>
-        <v>1050</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -28768,7 +28768,7 @@
       </c>
       <c r="E358">
         <f t="shared" ca="1" si="5"/>
-        <v>1010</v>
+        <v>880</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -28788,7 +28788,7 @@
       </c>
       <c r="E359">
         <f t="shared" ca="1" si="5"/>
-        <v>2570</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="E360">
         <f t="shared" ca="1" si="5"/>
-        <v>4270</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -28828,7 +28828,7 @@
       </c>
       <c r="E361">
         <f t="shared" ca="1" si="5"/>
-        <v>1370</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -28848,7 +28848,7 @@
       </c>
       <c r="E362">
         <f t="shared" ca="1" si="5"/>
-        <v>2540</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="E363">
         <f t="shared" ca="1" si="5"/>
-        <v>1380</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -28888,7 +28888,7 @@
       </c>
       <c r="E364">
         <f t="shared" ca="1" si="5"/>
-        <v>3260</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="E365">
         <f t="shared" ca="1" si="5"/>
-        <v>2970</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="E366">
         <f t="shared" ca="1" si="5"/>
-        <v>4160</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -28948,7 +28948,7 @@
       </c>
       <c r="E367">
         <f t="shared" ca="1" si="5"/>
-        <v>1090</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="E368">
         <f t="shared" ca="1" si="5"/>
-        <v>1530</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -28988,7 +28988,7 @@
       </c>
       <c r="E369">
         <f t="shared" ca="1" si="5"/>
-        <v>4140</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -29008,7 +29008,7 @@
       </c>
       <c r="E370">
         <f t="shared" ca="1" si="5"/>
-        <v>560</v>
+        <v>490</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -29028,7 +29028,7 @@
       </c>
       <c r="E371">
         <f t="shared" ca="1" si="5"/>
-        <v>3460</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -29048,7 +29048,7 @@
       </c>
       <c r="E372">
         <f t="shared" ca="1" si="5"/>
-        <v>3450</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="E373">
         <f t="shared" ca="1" si="5"/>
-        <v>4210</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -29088,7 +29088,7 @@
       </c>
       <c r="E374">
         <f t="shared" ca="1" si="5"/>
-        <v>3800</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -29108,7 +29108,7 @@
       </c>
       <c r="E375">
         <f t="shared" ca="1" si="5"/>
-        <v>1440</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -29128,7 +29128,7 @@
       </c>
       <c r="E376">
         <f t="shared" ca="1" si="5"/>
-        <v>710</v>
+        <v>770</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -29148,7 +29148,7 @@
       </c>
       <c r="E377">
         <f t="shared" ca="1" si="5"/>
-        <v>790</v>
+        <v>860</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -29168,7 +29168,7 @@
       </c>
       <c r="E378">
         <f t="shared" ca="1" si="5"/>
-        <v>2500</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -29188,7 +29188,7 @@
       </c>
       <c r="E379">
         <f t="shared" ca="1" si="5"/>
-        <v>2930</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -29208,7 +29208,7 @@
       </c>
       <c r="E380">
         <f t="shared" ca="1" si="5"/>
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="E381">
         <f t="shared" ca="1" si="5"/>
-        <v>3550</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="E382">
         <f t="shared" ca="1" si="5"/>
-        <v>4720</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -29268,7 +29268,7 @@
       </c>
       <c r="E383">
         <f t="shared" ca="1" si="5"/>
-        <v>3580</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -29288,7 +29288,7 @@
       </c>
       <c r="E384">
         <f t="shared" ca="1" si="5"/>
-        <v>4530</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="E385">
         <f t="shared" ca="1" si="5"/>
-        <v>1430</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -29328,7 +29328,7 @@
       </c>
       <c r="E386">
         <f t="shared" ca="1" si="5"/>
-        <v>1480</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -29348,7 +29348,7 @@
       </c>
       <c r="E387">
         <f t="shared" ref="E387:E450" ca="1" si="6">INT((D387-RANDBETWEEN(0,200))/10)*10</f>
-        <v>1480</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -29368,7 +29368,7 @@
       </c>
       <c r="E388">
         <f t="shared" ca="1" si="6"/>
-        <v>3120</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -29388,7 +29388,7 @@
       </c>
       <c r="E389">
         <f t="shared" ca="1" si="6"/>
-        <v>2960</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -29408,7 +29408,7 @@
       </c>
       <c r="E390">
         <f t="shared" ca="1" si="6"/>
-        <v>3530</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -29428,7 +29428,7 @@
       </c>
       <c r="E391">
         <f t="shared" ca="1" si="6"/>
-        <v>890</v>
+        <v>790</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -29448,7 +29448,7 @@
       </c>
       <c r="E392">
         <f t="shared" ca="1" si="6"/>
-        <v>2810</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -29468,7 +29468,7 @@
       </c>
       <c r="E393">
         <f t="shared" ca="1" si="6"/>
-        <v>3480</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="E394">
         <f t="shared" ca="1" si="6"/>
-        <v>830</v>
+        <v>950</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -29508,7 +29508,7 @@
       </c>
       <c r="E395">
         <f t="shared" ca="1" si="6"/>
-        <v>3250</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -29528,7 +29528,7 @@
       </c>
       <c r="E396">
         <f t="shared" ca="1" si="6"/>
-        <v>4520</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -29548,7 +29548,7 @@
       </c>
       <c r="E397">
         <f t="shared" ca="1" si="6"/>
-        <v>3590</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -29568,7 +29568,7 @@
       </c>
       <c r="E398">
         <f t="shared" ca="1" si="6"/>
-        <v>3160</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="E399">
         <f t="shared" ca="1" si="6"/>
-        <v>4840</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -29608,7 +29608,7 @@
       </c>
       <c r="E400">
         <f t="shared" ca="1" si="6"/>
-        <v>2940</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -29668,7 +29668,7 @@
       </c>
       <c r="E403">
         <f t="shared" ca="1" si="6"/>
-        <v>3490</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -29688,7 +29688,7 @@
       </c>
       <c r="E404">
         <f t="shared" ca="1" si="6"/>
-        <v>840</v>
+        <v>820</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -29708,7 +29708,7 @@
       </c>
       <c r="E405">
         <f t="shared" ca="1" si="6"/>
-        <v>4180</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="E406">
         <f t="shared" ca="1" si="6"/>
-        <v>1960</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -29748,7 +29748,7 @@
       </c>
       <c r="E407">
         <f t="shared" ca="1" si="6"/>
-        <v>2910</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="E408">
         <f t="shared" ca="1" si="6"/>
-        <v>1720</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -29788,7 +29788,7 @@
       </c>
       <c r="E409">
         <f t="shared" ca="1" si="6"/>
-        <v>2670</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -29808,7 +29808,7 @@
       </c>
       <c r="E410">
         <f t="shared" ca="1" si="6"/>
-        <v>3380</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -29828,7 +29828,7 @@
       </c>
       <c r="E411">
         <f t="shared" ca="1" si="6"/>
-        <v>2880</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="E412">
         <f t="shared" ca="1" si="6"/>
-        <v>1880</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -29868,7 +29868,7 @@
       </c>
       <c r="E413">
         <f t="shared" ca="1" si="6"/>
-        <v>1120</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="E414">
         <f t="shared" ca="1" si="6"/>
-        <v>2380</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="E415">
         <f t="shared" ca="1" si="6"/>
-        <v>3880</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="E416">
         <f t="shared" ca="1" si="6"/>
-        <v>4330</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -29948,7 +29948,7 @@
       </c>
       <c r="E417">
         <f t="shared" ca="1" si="6"/>
-        <v>1180</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -30008,7 +30008,7 @@
       </c>
       <c r="E420">
         <f t="shared" ca="1" si="6"/>
-        <v>3220</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -30028,7 +30028,7 @@
       </c>
       <c r="E421">
         <f t="shared" ca="1" si="6"/>
-        <v>2210</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="E422">
         <f t="shared" ca="1" si="6"/>
-        <v>1930</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -30068,7 +30068,7 @@
       </c>
       <c r="E423">
         <f t="shared" ca="1" si="6"/>
-        <v>2450</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="E424">
         <f t="shared" ca="1" si="6"/>
-        <v>4590</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="E425">
         <f t="shared" ca="1" si="6"/>
-        <v>1970</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -30128,7 +30128,7 @@
       </c>
       <c r="E426">
         <f t="shared" ca="1" si="6"/>
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="E427">
         <f t="shared" ca="1" si="6"/>
-        <v>4150</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -30168,7 +30168,7 @@
       </c>
       <c r="E428">
         <f t="shared" ca="1" si="6"/>
-        <v>4070</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -30188,7 +30188,7 @@
       </c>
       <c r="E429">
         <f t="shared" ca="1" si="6"/>
-        <v>2580</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -30208,7 +30208,7 @@
       </c>
       <c r="E430">
         <f t="shared" ca="1" si="6"/>
-        <v>890</v>
+        <v>910</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -30228,7 +30228,7 @@
       </c>
       <c r="E431">
         <f t="shared" ca="1" si="6"/>
-        <v>2610</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -30248,7 +30248,7 @@
       </c>
       <c r="E432">
         <f t="shared" ca="1" si="6"/>
-        <v>690</v>
+        <v>770</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="E433">
         <f t="shared" ca="1" si="6"/>
-        <v>2390</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -30288,7 +30288,7 @@
       </c>
       <c r="E434">
         <f t="shared" ca="1" si="6"/>
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="E435">
         <f t="shared" ca="1" si="6"/>
-        <v>2420</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -30328,7 +30328,7 @@
       </c>
       <c r="E436">
         <f t="shared" ca="1" si="6"/>
-        <v>3590</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -30388,7 +30388,7 @@
       </c>
       <c r="E439">
         <f t="shared" ca="1" si="6"/>
-        <v>4020</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -30408,7 +30408,7 @@
       </c>
       <c r="E440">
         <f t="shared" ca="1" si="6"/>
-        <v>1990</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -30428,7 +30428,7 @@
       </c>
       <c r="E441">
         <f t="shared" ca="1" si="6"/>
-        <v>4270</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="E442">
         <f t="shared" ca="1" si="6"/>
-        <v>3300</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -30468,7 +30468,7 @@
       </c>
       <c r="E443">
         <f t="shared" ca="1" si="6"/>
-        <v>3130</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="E444">
         <f t="shared" ca="1" si="6"/>
-        <v>2130</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -30508,7 +30508,7 @@
       </c>
       <c r="E445">
         <f t="shared" ca="1" si="6"/>
-        <v>2450</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="E446">
         <f t="shared" ca="1" si="6"/>
-        <v>4570</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -30548,7 +30548,7 @@
       </c>
       <c r="E447">
         <f t="shared" ca="1" si="6"/>
-        <v>4670</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -30568,7 +30568,7 @@
       </c>
       <c r="E448">
         <f t="shared" ca="1" si="6"/>
-        <v>3370</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -30588,7 +30588,7 @@
       </c>
       <c r="E449">
         <f t="shared" ca="1" si="6"/>
-        <v>1820</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E450">
         <f t="shared" ca="1" si="6"/>
-        <v>4480</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="E451">
         <f t="shared" ref="E451:E514" ca="1" si="7">INT((D451-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4230</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -30648,7 +30648,7 @@
       </c>
       <c r="E452">
         <f t="shared" ca="1" si="7"/>
-        <v>1950</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -30668,7 +30668,7 @@
       </c>
       <c r="E453">
         <f t="shared" ca="1" si="7"/>
-        <v>3770</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -30688,7 +30688,7 @@
       </c>
       <c r="E454">
         <f t="shared" ca="1" si="7"/>
-        <v>4930</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="E455">
         <f t="shared" ca="1" si="7"/>
-        <v>4590</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -30728,7 +30728,7 @@
       </c>
       <c r="E456">
         <f t="shared" ca="1" si="7"/>
-        <v>3550</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -30748,7 +30748,7 @@
       </c>
       <c r="E457">
         <f t="shared" ca="1" si="7"/>
-        <v>960</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -30788,7 +30788,7 @@
       </c>
       <c r="E459">
         <f t="shared" ca="1" si="7"/>
-        <v>4300</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="E460">
         <f t="shared" ca="1" si="7"/>
-        <v>1040</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -30828,7 +30828,7 @@
       </c>
       <c r="E461">
         <f t="shared" ca="1" si="7"/>
-        <v>610</v>
+        <v>680</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -30868,7 +30868,7 @@
       </c>
       <c r="E463">
         <f t="shared" ca="1" si="7"/>
-        <v>3270</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
@@ -30888,7 +30888,7 @@
       </c>
       <c r="E464">
         <f t="shared" ca="1" si="7"/>
-        <v>4720</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -30908,7 +30908,7 @@
       </c>
       <c r="E465">
         <f t="shared" ca="1" si="7"/>
-        <v>2630</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -30928,7 +30928,7 @@
       </c>
       <c r="E466">
         <f t="shared" ca="1" si="7"/>
-        <v>4700</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="E467">
         <f t="shared" ca="1" si="7"/>
-        <v>3170</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -30968,7 +30968,7 @@
       </c>
       <c r="E468">
         <f t="shared" ca="1" si="7"/>
-        <v>4310</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -30988,7 +30988,7 @@
       </c>
       <c r="E469">
         <f t="shared" ca="1" si="7"/>
-        <v>2490</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -31008,7 +31008,7 @@
       </c>
       <c r="E470">
         <f t="shared" ca="1" si="7"/>
-        <v>1530</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="E471">
         <f t="shared" ca="1" si="7"/>
-        <v>3460</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -31048,7 +31048,7 @@
       </c>
       <c r="E472">
         <f t="shared" ca="1" si="7"/>
-        <v>3170</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -31068,7 +31068,7 @@
       </c>
       <c r="E473">
         <f t="shared" ca="1" si="7"/>
-        <v>3160</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -31088,7 +31088,7 @@
       </c>
       <c r="E474">
         <f t="shared" ca="1" si="7"/>
-        <v>1850</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -31108,7 +31108,7 @@
       </c>
       <c r="E475">
         <f t="shared" ca="1" si="7"/>
-        <v>2450</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -31128,7 +31128,7 @@
       </c>
       <c r="E476">
         <f t="shared" ca="1" si="7"/>
-        <v>790</v>
+        <v>750</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -31148,7 +31148,7 @@
       </c>
       <c r="E477">
         <f t="shared" ca="1" si="7"/>
-        <v>2930</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -31168,7 +31168,7 @@
       </c>
       <c r="E478">
         <f t="shared" ca="1" si="7"/>
-        <v>4480</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -31188,7 +31188,7 @@
       </c>
       <c r="E479">
         <f t="shared" ca="1" si="7"/>
-        <v>1470</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -31208,7 +31208,7 @@
       </c>
       <c r="E480">
         <f t="shared" ca="1" si="7"/>
-        <v>4380</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -31228,7 +31228,7 @@
       </c>
       <c r="E481">
         <f t="shared" ca="1" si="7"/>
-        <v>4290</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -31248,7 +31248,7 @@
       </c>
       <c r="E482">
         <f t="shared" ca="1" si="7"/>
-        <v>720</v>
+        <v>660</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -31268,7 +31268,7 @@
       </c>
       <c r="E483">
         <f t="shared" ca="1" si="7"/>
-        <v>1830</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="E484">
         <f t="shared" ca="1" si="7"/>
-        <v>3260</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -31308,7 +31308,7 @@
       </c>
       <c r="E485">
         <f t="shared" ca="1" si="7"/>
-        <v>1210</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -31328,7 +31328,7 @@
       </c>
       <c r="E486">
         <f t="shared" ca="1" si="7"/>
-        <v>1720</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -31348,7 +31348,7 @@
       </c>
       <c r="E487">
         <f t="shared" ca="1" si="7"/>
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -31368,7 +31368,7 @@
       </c>
       <c r="E488">
         <f t="shared" ca="1" si="7"/>
-        <v>3390</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -31388,7 +31388,7 @@
       </c>
       <c r="E489">
         <f t="shared" ca="1" si="7"/>
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="E490">
         <f t="shared" ca="1" si="7"/>
-        <v>2090</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -31428,7 +31428,7 @@
       </c>
       <c r="E491">
         <f t="shared" ca="1" si="7"/>
-        <v>4080</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -31448,7 +31448,7 @@
       </c>
       <c r="E492">
         <f t="shared" ca="1" si="7"/>
-        <v>850</v>
+        <v>800</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="E493">
         <f t="shared" ca="1" si="7"/>
-        <v>620</v>
+        <v>650</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -31488,7 +31488,7 @@
       </c>
       <c r="E494">
         <f t="shared" ca="1" si="7"/>
-        <v>3480</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -31508,7 +31508,7 @@
       </c>
       <c r="E495">
         <f t="shared" ca="1" si="7"/>
-        <v>2470</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="E496">
         <f t="shared" ca="1" si="7"/>
-        <v>1840</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -31548,7 +31548,7 @@
       </c>
       <c r="E497">
         <f t="shared" ca="1" si="7"/>
-        <v>4690</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -31568,7 +31568,7 @@
       </c>
       <c r="E498">
         <f t="shared" ca="1" si="7"/>
-        <v>2470</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="E499">
         <f t="shared" ca="1" si="7"/>
-        <v>3300</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -31608,7 +31608,7 @@
       </c>
       <c r="E500">
         <f t="shared" ca="1" si="7"/>
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -31628,7 +31628,7 @@
       </c>
       <c r="E501">
         <f t="shared" ca="1" si="7"/>
-        <v>4780</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -31648,7 +31648,7 @@
       </c>
       <c r="E502">
         <f t="shared" ca="1" si="7"/>
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -31668,7 +31668,7 @@
       </c>
       <c r="E503">
         <f t="shared" ca="1" si="7"/>
-        <v>1000</v>
+        <v>830</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -31688,7 +31688,7 @@
       </c>
       <c r="E504">
         <f t="shared" ca="1" si="7"/>
-        <v>1100</v>
+        <v>940</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -31708,7 +31708,7 @@
       </c>
       <c r="E505">
         <f t="shared" ca="1" si="7"/>
-        <v>1120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -31728,7 +31728,7 @@
       </c>
       <c r="E506">
         <f t="shared" ca="1" si="7"/>
-        <v>4180</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -31748,7 +31748,7 @@
       </c>
       <c r="E507">
         <f t="shared" ca="1" si="7"/>
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="E508">
         <f t="shared" ca="1" si="7"/>
-        <v>2030</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -31788,7 +31788,7 @@
       </c>
       <c r="E509">
         <f t="shared" ca="1" si="7"/>
-        <v>1860</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -31808,7 +31808,7 @@
       </c>
       <c r="E510">
         <f t="shared" ca="1" si="7"/>
-        <v>2560</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -31828,7 +31828,7 @@
       </c>
       <c r="E511">
         <f t="shared" ca="1" si="7"/>
-        <v>4360</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -31848,7 +31848,7 @@
       </c>
       <c r="E512">
         <f t="shared" ca="1" si="7"/>
-        <v>1450</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -31868,7 +31868,7 @@
       </c>
       <c r="E513">
         <f t="shared" ca="1" si="7"/>
-        <v>1130</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -31888,7 +31888,7 @@
       </c>
       <c r="E514">
         <f t="shared" ca="1" si="7"/>
-        <v>930</v>
+        <v>820</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -31908,7 +31908,7 @@
       </c>
       <c r="E515">
         <f t="shared" ref="E515:E578" ca="1" si="8">INT((D515-RANDBETWEEN(0,200))/10)*10</f>
-        <v>1710</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -31928,7 +31928,7 @@
       </c>
       <c r="E516">
         <f t="shared" ca="1" si="8"/>
-        <v>3480</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -31948,7 +31948,7 @@
       </c>
       <c r="E517">
         <f t="shared" ca="1" si="8"/>
-        <v>890</v>
+        <v>810</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="E518">
         <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -31988,7 +31988,7 @@
       </c>
       <c r="E519">
         <f t="shared" ca="1" si="8"/>
-        <v>940</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -32008,7 +32008,7 @@
       </c>
       <c r="E520">
         <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="E521">
         <f t="shared" ca="1" si="8"/>
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -32048,7 +32048,7 @@
       </c>
       <c r="E522">
         <f t="shared" ca="1" si="8"/>
-        <v>1490</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="E523">
         <f t="shared" ca="1" si="8"/>
-        <v>4360</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -32088,7 +32088,7 @@
       </c>
       <c r="E524">
         <f t="shared" ca="1" si="8"/>
-        <v>860</v>
+        <v>830</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -32128,7 +32128,7 @@
       </c>
       <c r="E526">
         <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="E528">
         <f t="shared" ca="1" si="8"/>
-        <v>4420</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -32208,7 +32208,7 @@
       </c>
       <c r="E530">
         <f t="shared" ca="1" si="8"/>
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -32228,7 +32228,7 @@
       </c>
       <c r="E531">
         <f t="shared" ca="1" si="8"/>
-        <v>4370</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -32248,7 +32248,7 @@
       </c>
       <c r="E532">
         <f t="shared" ca="1" si="8"/>
-        <v>1990</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -32268,7 +32268,7 @@
       </c>
       <c r="E533">
         <f t="shared" ca="1" si="8"/>
-        <v>4380</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -32288,7 +32288,7 @@
       </c>
       <c r="E534">
         <f t="shared" ca="1" si="8"/>
-        <v>1970</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="E535">
         <f t="shared" ca="1" si="8"/>
-        <v>4230</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -32328,7 +32328,7 @@
       </c>
       <c r="E536">
         <f t="shared" ca="1" si="8"/>
-        <v>4500</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -32348,7 +32348,7 @@
       </c>
       <c r="E537">
         <f t="shared" ca="1" si="8"/>
-        <v>1350</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -32368,7 +32368,7 @@
       </c>
       <c r="E538">
         <f t="shared" ca="1" si="8"/>
-        <v>1120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -32388,7 +32388,7 @@
       </c>
       <c r="E539">
         <f t="shared" ca="1" si="8"/>
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="E540">
         <f t="shared" ca="1" si="8"/>
-        <v>4690</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -32428,7 +32428,7 @@
       </c>
       <c r="E541">
         <f t="shared" ca="1" si="8"/>
-        <v>3510</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -32448,7 +32448,7 @@
       </c>
       <c r="E542">
         <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -32468,7 +32468,7 @@
       </c>
       <c r="E543">
         <f t="shared" ca="1" si="8"/>
-        <v>3320</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -32488,7 +32488,7 @@
       </c>
       <c r="E544">
         <f t="shared" ca="1" si="8"/>
-        <v>1130</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -32508,7 +32508,7 @@
       </c>
       <c r="E545">
         <f t="shared" ca="1" si="8"/>
-        <v>1540</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
@@ -32528,7 +32528,7 @@
       </c>
       <c r="E546">
         <f t="shared" ca="1" si="8"/>
-        <v>4910</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="E547">
         <f t="shared" ca="1" si="8"/>
-        <v>2340</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -32568,7 +32568,7 @@
       </c>
       <c r="E548">
         <f t="shared" ca="1" si="8"/>
-        <v>1150</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -32588,7 +32588,7 @@
       </c>
       <c r="E549">
         <f t="shared" ca="1" si="8"/>
-        <v>1760</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
@@ -32608,7 +32608,7 @@
       </c>
       <c r="E550">
         <f t="shared" ca="1" si="8"/>
-        <v>2610</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
@@ -32628,7 +32628,7 @@
       </c>
       <c r="E551">
         <f t="shared" ca="1" si="8"/>
-        <v>3160</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
@@ -32648,7 +32648,7 @@
       </c>
       <c r="E552">
         <f t="shared" ca="1" si="8"/>
-        <v>4200</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -32688,7 +32688,7 @@
       </c>
       <c r="E554">
         <f t="shared" ca="1" si="8"/>
-        <v>2350</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
@@ -32708,7 +32708,7 @@
       </c>
       <c r="E555">
         <f t="shared" ca="1" si="8"/>
-        <v>3330</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
@@ -32728,7 +32728,7 @@
       </c>
       <c r="E556">
         <f t="shared" ca="1" si="8"/>
-        <v>1010</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
@@ -32748,7 +32748,7 @@
       </c>
       <c r="E557">
         <f t="shared" ca="1" si="8"/>
-        <v>670</v>
+        <v>820</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E558">
         <f t="shared" ca="1" si="8"/>
-        <v>880</v>
+        <v>760</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
       </c>
       <c r="E559">
         <f t="shared" ca="1" si="8"/>
-        <v>4090</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
@@ -32808,7 +32808,7 @@
       </c>
       <c r="E560">
         <f t="shared" ca="1" si="8"/>
-        <v>1570</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
@@ -32828,7 +32828,7 @@
       </c>
       <c r="E561">
         <f t="shared" ca="1" si="8"/>
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
@@ -32848,7 +32848,7 @@
       </c>
       <c r="E562">
         <f t="shared" ca="1" si="8"/>
-        <v>830</v>
+        <v>870</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="E563">
         <f t="shared" ca="1" si="8"/>
-        <v>2110</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
@@ -32888,7 +32888,7 @@
       </c>
       <c r="E564">
         <f t="shared" ca="1" si="8"/>
-        <v>3510</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -32908,7 +32908,7 @@
       </c>
       <c r="E565">
         <f t="shared" ca="1" si="8"/>
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -32928,7 +32928,7 @@
       </c>
       <c r="E566">
         <f t="shared" ca="1" si="8"/>
-        <v>3460</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="E567">
         <f t="shared" ca="1" si="8"/>
-        <v>1960</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="E568">
         <f t="shared" ca="1" si="8"/>
-        <v>3490</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="E569">
         <f t="shared" ca="1" si="8"/>
-        <v>4730</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="E570">
         <f t="shared" ca="1" si="8"/>
-        <v>2380</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
@@ -33028,7 +33028,7 @@
       </c>
       <c r="E571">
         <f t="shared" ca="1" si="8"/>
-        <v>3980</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
@@ -33048,7 +33048,7 @@
       </c>
       <c r="E572">
         <f t="shared" ca="1" si="8"/>
-        <v>4420</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
@@ -33068,7 +33068,7 @@
       </c>
       <c r="E573">
         <f t="shared" ca="1" si="8"/>
-        <v>2990</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
@@ -33088,7 +33088,7 @@
       </c>
       <c r="E574">
         <f t="shared" ca="1" si="8"/>
-        <v>4110</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
@@ -33108,7 +33108,7 @@
       </c>
       <c r="E575">
         <f t="shared" ca="1" si="8"/>
-        <v>4280</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
@@ -33128,7 +33128,7 @@
       </c>
       <c r="E576">
         <f t="shared" ca="1" si="8"/>
-        <v>3240</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
@@ -33148,7 +33148,7 @@
       </c>
       <c r="E577">
         <f t="shared" ca="1" si="8"/>
-        <v>450</v>
+        <v>520</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="E578">
         <f t="shared" ca="1" si="8"/>
-        <v>4360</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
@@ -33188,7 +33188,7 @@
       </c>
       <c r="E579">
         <f t="shared" ref="E579:E642" ca="1" si="9">INT((D579-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3760</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
@@ -33208,7 +33208,7 @@
       </c>
       <c r="E580">
         <f t="shared" ca="1" si="9"/>
-        <v>1590</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
@@ -33228,7 +33228,7 @@
       </c>
       <c r="E581">
         <f t="shared" ca="1" si="9"/>
-        <v>1490</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -33248,7 +33248,7 @@
       </c>
       <c r="E582">
         <f t="shared" ca="1" si="9"/>
-        <v>1810</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -33268,7 +33268,7 @@
       </c>
       <c r="E583">
         <f t="shared" ca="1" si="9"/>
-        <v>470</v>
+        <v>540</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -33288,7 +33288,7 @@
       </c>
       <c r="E584">
         <f t="shared" ca="1" si="9"/>
-        <v>3560</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E585">
         <f t="shared" ca="1" si="9"/>
-        <v>540</v>
+        <v>650</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="E586">
         <f t="shared" ca="1" si="9"/>
-        <v>1410</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
@@ -33348,7 +33348,7 @@
       </c>
       <c r="E587">
         <f t="shared" ca="1" si="9"/>
-        <v>2630</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
@@ -33368,7 +33368,7 @@
       </c>
       <c r="E588">
         <f t="shared" ca="1" si="9"/>
-        <v>3210</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -33388,7 +33388,7 @@
       </c>
       <c r="E589">
         <f t="shared" ca="1" si="9"/>
-        <v>770</v>
+        <v>840</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -33408,7 +33408,7 @@
       </c>
       <c r="E590">
         <f t="shared" ca="1" si="9"/>
-        <v>4150</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
@@ -33428,7 +33428,7 @@
       </c>
       <c r="E591">
         <f t="shared" ca="1" si="9"/>
-        <v>4650</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -33448,7 +33448,7 @@
       </c>
       <c r="E592">
         <f t="shared" ca="1" si="9"/>
-        <v>4240</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -33468,7 +33468,7 @@
       </c>
       <c r="E593">
         <f t="shared" ca="1" si="9"/>
-        <v>4780</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -33488,7 +33488,7 @@
       </c>
       <c r="E594">
         <f t="shared" ca="1" si="9"/>
-        <v>530</v>
+        <v>440</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -33508,7 +33508,7 @@
       </c>
       <c r="E595">
         <f t="shared" ca="1" si="9"/>
-        <v>3050</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
@@ -33528,7 +33528,7 @@
       </c>
       <c r="E596">
         <f t="shared" ca="1" si="9"/>
-        <v>1510</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -33548,7 +33548,7 @@
       </c>
       <c r="E597">
         <f t="shared" ca="1" si="9"/>
-        <v>4530</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -33568,7 +33568,7 @@
       </c>
       <c r="E598">
         <f t="shared" ca="1" si="9"/>
-        <v>3240</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -33588,7 +33588,7 @@
       </c>
       <c r="E599">
         <f t="shared" ca="1" si="9"/>
-        <v>3890</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -33608,7 +33608,7 @@
       </c>
       <c r="E600">
         <f t="shared" ca="1" si="9"/>
-        <v>1580</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -33628,7 +33628,7 @@
       </c>
       <c r="E601">
         <f t="shared" ca="1" si="9"/>
-        <v>2640</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -33648,7 +33648,7 @@
       </c>
       <c r="E602">
         <f t="shared" ca="1" si="9"/>
-        <v>930</v>
+        <v>830</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="E603">
         <f t="shared" ca="1" si="9"/>
-        <v>2680</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
@@ -33688,7 +33688,7 @@
       </c>
       <c r="E604">
         <f t="shared" ca="1" si="9"/>
-        <v>4140</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
@@ -33708,7 +33708,7 @@
       </c>
       <c r="E605">
         <f t="shared" ca="1" si="9"/>
-        <v>1670</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="E606">
         <f t="shared" ca="1" si="9"/>
-        <v>720</v>
+        <v>690</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
@@ -33748,7 +33748,7 @@
       </c>
       <c r="E607">
         <f t="shared" ca="1" si="9"/>
-        <v>4130</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
@@ -33768,7 +33768,7 @@
       </c>
       <c r="E608">
         <f t="shared" ca="1" si="9"/>
-        <v>3210</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -33788,7 +33788,7 @@
       </c>
       <c r="E609">
         <f t="shared" ca="1" si="9"/>
-        <v>3350</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -33808,7 +33808,7 @@
       </c>
       <c r="E610">
         <f t="shared" ca="1" si="9"/>
-        <v>3270</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
@@ -33828,7 +33828,7 @@
       </c>
       <c r="E611">
         <f t="shared" ca="1" si="9"/>
-        <v>980</v>
+        <v>950</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E612">
         <f t="shared" ca="1" si="9"/>
-        <v>3110</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -33868,7 +33868,7 @@
       </c>
       <c r="E613">
         <f t="shared" ca="1" si="9"/>
-        <v>3180</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="E614">
         <f t="shared" ca="1" si="9"/>
-        <v>1100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
@@ -33908,7 +33908,7 @@
       </c>
       <c r="E615">
         <f t="shared" ca="1" si="9"/>
-        <v>1130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
@@ -33928,7 +33928,7 @@
       </c>
       <c r="E616">
         <f t="shared" ca="1" si="9"/>
-        <v>790</v>
+        <v>760</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
@@ -33948,7 +33948,7 @@
       </c>
       <c r="E617">
         <f t="shared" ca="1" si="9"/>
-        <v>1980</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
@@ -33968,7 +33968,7 @@
       </c>
       <c r="E618">
         <f t="shared" ca="1" si="9"/>
-        <v>960</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="E619">
         <f t="shared" ca="1" si="9"/>
-        <v>3270</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -34008,7 +34008,7 @@
       </c>
       <c r="E620">
         <f t="shared" ca="1" si="9"/>
-        <v>1460</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="E621">
         <f t="shared" ca="1" si="9"/>
-        <v>3600</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
@@ -34048,7 +34048,7 @@
       </c>
       <c r="E622">
         <f t="shared" ca="1" si="9"/>
-        <v>4560</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
@@ -34068,7 +34068,7 @@
       </c>
       <c r="E623">
         <f t="shared" ca="1" si="9"/>
-        <v>4430</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -34088,7 +34088,7 @@
       </c>
       <c r="E624">
         <f t="shared" ca="1" si="9"/>
-        <v>2610</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
@@ -34108,7 +34108,7 @@
       </c>
       <c r="E625">
         <f t="shared" ca="1" si="9"/>
-        <v>3220</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
@@ -34148,7 +34148,7 @@
       </c>
       <c r="E627">
         <f t="shared" ca="1" si="9"/>
-        <v>2460</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="E628">
         <f t="shared" ca="1" si="9"/>
-        <v>1950</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="E629">
         <f t="shared" ca="1" si="9"/>
-        <v>4210</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -34208,7 +34208,7 @@
       </c>
       <c r="E630">
         <f t="shared" ca="1" si="9"/>
-        <v>2420</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
@@ -34228,7 +34228,7 @@
       </c>
       <c r="E631">
         <f t="shared" ca="1" si="9"/>
-        <v>4150</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="E633">
         <f t="shared" ca="1" si="9"/>
-        <v>4310</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
@@ -34288,7 +34288,7 @@
       </c>
       <c r="E634">
         <f t="shared" ca="1" si="9"/>
-        <v>3180</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
@@ -34308,7 +34308,7 @@
       </c>
       <c r="E635">
         <f t="shared" ca="1" si="9"/>
-        <v>4100</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
@@ -34328,7 +34328,7 @@
       </c>
       <c r="E636">
         <f t="shared" ca="1" si="9"/>
-        <v>1880</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="E637">
         <f t="shared" ca="1" si="9"/>
-        <v>4780</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
@@ -34368,7 +34368,7 @@
       </c>
       <c r="E638">
         <f t="shared" ca="1" si="9"/>
-        <v>3330</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
@@ -34388,7 +34388,7 @@
       </c>
       <c r="E639">
         <f t="shared" ca="1" si="9"/>
-        <v>4410</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -34408,7 +34408,7 @@
       </c>
       <c r="E640">
         <f t="shared" ca="1" si="9"/>
-        <v>4030</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -34428,7 +34428,7 @@
       </c>
       <c r="E641">
         <f t="shared" ca="1" si="9"/>
-        <v>3860</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
@@ -34448,7 +34448,7 @@
       </c>
       <c r="E642">
         <f t="shared" ca="1" si="9"/>
-        <v>1070</v>
+        <v>960</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="E643">
         <f t="shared" ref="E643:E654" ca="1" si="10">INT((D643-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3550</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
@@ -34488,7 +34488,7 @@
       </c>
       <c r="E644">
         <f t="shared" ca="1" si="10"/>
-        <v>3570</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
@@ -34508,7 +34508,7 @@
       </c>
       <c r="E645">
         <f t="shared" ca="1" si="10"/>
-        <v>1970</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
@@ -34528,7 +34528,7 @@
       </c>
       <c r="E646">
         <f t="shared" ca="1" si="10"/>
-        <v>1450</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
@@ -34548,7 +34548,7 @@
       </c>
       <c r="E647">
         <f t="shared" ca="1" si="10"/>
-        <v>4330</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
@@ -34568,7 +34568,7 @@
       </c>
       <c r="E648">
         <f t="shared" ca="1" si="10"/>
-        <v>1600</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
@@ -34588,7 +34588,7 @@
       </c>
       <c r="E649">
         <f t="shared" ca="1" si="10"/>
-        <v>2940</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="E650">
         <f t="shared" ca="1" si="10"/>
-        <v>1310</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
@@ -34628,7 +34628,7 @@
       </c>
       <c r="E651">
         <f t="shared" ca="1" si="10"/>
-        <v>3760</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
@@ -34648,7 +34648,7 @@
       </c>
       <c r="E652">
         <f t="shared" ca="1" si="10"/>
-        <v>3400</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
@@ -34668,7 +34668,7 @@
       </c>
       <c r="E653">
         <f t="shared" ca="1" si="10"/>
-        <v>2110</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
@@ -34688,7 +34688,7 @@
       </c>
       <c r="E654">
         <f t="shared" ca="1" si="10"/>
-        <v>4310</v>
+        <v>4230</v>
       </c>
     </row>
   </sheetData>
@@ -35286,7 +35286,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
